--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_4.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Họ tên</t>
   </si>
@@ -32,43 +32,67 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t xml:space="preserve">Thành  Hậu</t>
-  </si>
-  <si>
-    <t>haupham809@gmail.com</t>
-  </si>
-  <si>
-    <t>18:46:52 05/11/2022</t>
-  </si>
-  <si>
-    <t>10:52:00 10/10/2022</t>
-  </si>
-  <si>
-    <t>Nộp muộn</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>haupham2@gmail.com</t>
-  </si>
-  <si>
-    <t>18:47:12 05/11/2022</t>
+    <t>Nguyễn Văn Kha</t>
+  </si>
+  <si>
+    <t>2@gmail.com</t>
+  </si>
+  <si>
+    <t>08:12:19 26/06/2023</t>
+  </si>
+  <si>
+    <t>08:08:00 28/06/2023</t>
+  </si>
+  <si>
+    <t>Đã nộp</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>haupham3@gmail.com</t>
-  </si>
-  <si>
-    <t>18:47:42 05/11/2022</t>
-  </si>
-  <si>
-    <t>haupham4@gmail.com</t>
+    <t>Nguyễn Văn Phụng</t>
+  </si>
+  <si>
+    <t>5@gmail.com</t>
+  </si>
+  <si>
+    <t>08:13:26 26/06/2023</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sang</t>
+  </si>
+  <si>
+    <t>6@gmail.com</t>
+  </si>
+  <si>
+    <t>08:13:39 26/06/2023</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sương</t>
+  </si>
+  <si>
+    <t>7@gmail.com</t>
   </si>
   <si>
     <t>Chưa Nộp</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thế</t>
+  </si>
+  <si>
+    <t>3@gmail.com</t>
+  </si>
+  <si>
+    <t>08:12:40 26/06/2023</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Việt</t>
+  </si>
+  <si>
+    <t>4@gmail.com</t>
+  </si>
+  <si>
+    <t>08:12:58 26/06/2023</t>
   </si>
 </sst>
 </file>
@@ -137,17 +161,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.521821975708" customWidth="1"/>
-    <col min="2" max="2" width="33.9146766662598" customWidth="1"/>
+    <col min="1" max="1" width="25.4295558929443" customWidth="1"/>
+    <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
     <col min="3" max="3" width="28.1006889343262" customWidth="1"/>
     <col min="4" max="4" width="28.1006889343262" customWidth="1"/>
-    <col min="5" max="5" width="14.5158700942993" customWidth="1"/>
+    <col min="5" max="5" width="13.9027738571167" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -184,7 +208,7 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -193,62 +217,102 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
